--- a/co2ppm.xlsx
+++ b/co2ppm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laniepreston/Desktop/CapstoneCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FA0B91-C20A-3A4A-A14C-1028C1130186}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE10110-04B3-564F-92C4-DC6B6D68371A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8780" yWindow="460" windowWidth="28040" windowHeight="16440" xr2:uid="{B44B0863-ED50-494F-AECA-A63006C78208}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16440" xr2:uid="{B44B0863-ED50-494F-AECA-A63006C78208}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,7 +390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90931247-D830-B341-A3F2-DBD7A048B3FA}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
